--- a/xlsx/泰勒·科文_intext.xlsx
+++ b/xlsx/泰勒·科文_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E6%A2%85%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治梅森大學</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_泰勒·科文</t>
+    <t>乔治梅森大学</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_泰勒·科文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B1%E5%92%8C</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
+    <t>新泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%8B%E6%A3%8B</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E5%85%8B%E7%BD%97%E5%A7%86%E6%AF%94%C2%B7%E8%B0%A2%E6%9E%97</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
